--- a/data/case1/2/V1_1.xlsx
+++ b/data/case1/2/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999455892474</v>
+        <v>0.99999999204515344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99421793812695847</v>
+        <v>0.99446858115042924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97479421512100028</v>
+        <v>0.97217357607617094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96632545127616631</v>
+        <v>0.96160852361365012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95831046802505992</v>
+        <v>0.95143387749850439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94113933038363984</v>
+        <v>0.92692537464003422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93885408482500887</v>
+        <v>0.92309135930935371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93490579403848972</v>
+        <v>0.91854335783638807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93269724188762748</v>
+        <v>0.91447172084687911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93142034700824283</v>
+        <v>0.91133109141027679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93123154584548407</v>
+        <v>0.91097662550670222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93112879638852841</v>
+        <v>0.91055812027810612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93376649203039208</v>
+        <v>0.91028081731759158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93619969242222145</v>
+        <v>0.91091797263096219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93951037349154154</v>
+        <v>0.91289460289243773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93700407841360578</v>
+        <v>0.9103881775620124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9332963296076624</v>
+        <v>0.90668032968214618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93218741857617227</v>
+        <v>0.90557142917054434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99183337042541075</v>
+        <v>0.99239231836024389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98403665413299524</v>
+        <v>0.97585664595329213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98263815046563097</v>
+        <v>0.97445816474062075</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98137363920134735</v>
+        <v>0.97319365899692456</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96775870903749828</v>
+        <v>0.96513794162432331</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95473711219277191</v>
+        <v>0.95211620644786599</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94827999526061424</v>
+        <v>0.94565907484779066</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93906046840973323</v>
+        <v>0.92401802942390887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93641186032875812</v>
+        <v>0.92021363376161913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9272718700188971</v>
+        <v>0.90388847479194201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92115614327342754</v>
+        <v>0.89242846943473564</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91836772085753238</v>
+        <v>0.88763500160232145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92292562024044944</v>
+        <v>0.87998127362606693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92573318005761207</v>
+        <v>0.87830197734763915</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92521316816926213</v>
+        <v>0.87778197832358562</v>
       </c>
     </row>
   </sheetData>
